--- a/1.Arquitectura de software-REPOSITORIO/2.HISTORIAS DE USUARIO/HISTORIAS_USUARIO-GAES 5.xlsx
+++ b/1.Arquitectura de software-REPOSITORIO/2.HISTORIAS DE USUARIO/HISTORIAS_USUARIO-GAES 5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.TECNÓLOGO-ADSO-2025\1. Trimestre 1\0.WYK-Panaderia\5.HISTORIAS DE USUARIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.TECNÓLOGO-ADSO-2025\1.REPOSITORIO-WYK-PANADERIA.github.io\1.Arquitectura de software-REPOSITORIO\2.HISTORIAS DE USUARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B4073C-6F09-449B-8865-F887839939A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB4317A-ADDB-4D6E-B31D-47BB423251F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="274">
   <si>
     <t>Enunciado de la historia</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Necesito registrar un usuario en el sistema.</t>
-  </si>
-  <si>
-    <t>Con la finalidad de almacenar en el sistema los usuarios necesarios para el ingreso de estos mismos con sus respectivos roles.</t>
   </si>
   <si>
     <t>Registrar usuario propio más de una vez.</t>
@@ -208,9 +205,6 @@
     <t>Necesito registrar un cargo en el sistema.</t>
   </si>
   <si>
-    <t>Con la finalidad de almacenar cargos nuevos en el sistema.</t>
-  </si>
-  <si>
     <t>En caso de ya existir el número de identificación del cargo en el sistema.</t>
   </si>
   <si>
@@ -256,9 +250,6 @@
     <t>Necesito consultar mi propio usuario existente en el sistema.</t>
   </si>
   <si>
-    <t>Con la finalidad de realizar la propia consulta del usuario para ver detalladamente la información que lo compone.</t>
-  </si>
-  <si>
     <t>014</t>
   </si>
   <si>
@@ -294,12 +285,570 @@
   <si>
     <t>El sistema no encuentra la información especificada, por tal razón, se mostrará en pantalla el mensaje “La información no existe. Inténtelo nuevamente.”.</t>
   </si>
+  <si>
+    <t>Necesito iniciar sesión en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de acceder al sistema con los respectivos permisos que tenga el usuario.</t>
+  </si>
+  <si>
+    <t>Validación incorrecta de usuario.</t>
+  </si>
+  <si>
+    <t>En caso de no existir el usuario en el sistema o no coincidir los datos ingresados con un usuario existente.</t>
+  </si>
+  <si>
+    <t>Necesito recuperar la contraseña de mi usuario.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de recuperar mi usuario para acceder al sistema con los respectivos permisos que tenga.</t>
+  </si>
+  <si>
+    <t>Cuando se digite el formulario para la recuperación de contraseña mediante una validación de datos.</t>
+  </si>
+  <si>
+    <t>El sistema solicitará nuevamente ingresar los datos del usuario.</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>Con la finalidad de ver detalladamente la información que lo compone, incluyendo el tipo de acceso.</t>
+  </si>
+  <si>
+    <t>Necesito registrar un empleado en el sistema.</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>En caso de ya existir el número de identificación del empleado en el sistema.</t>
+  </si>
+  <si>
+    <t>Cuando digite el formulario para crear un empleado en el sistema. y realice la acción de "enviar".</t>
+  </si>
+  <si>
+    <t>El sistema verifica que el número de identificación del empleado a registrar ya existe, por tal razón, se mostrará en pantalla el mensaje “Este empleado ya existe. Inténtelo con uno nuevo”.</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>Necesito actualizar los datos de un empleado ya existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de mantener actualizada la información de cada registro de un empleado existente en el sistema.</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>Necesito eliminar todos los datos de un empleado ya existente en el sistema. Esto incluye también registros completos que tengan una relación de uso frente a la información de dicho empleado.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de eliminar toda la información innecesaria de un empleado en el sistema.</t>
+  </si>
+  <si>
+    <t>Necesito desactivar todos los datos de un empleado ya existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de mantener oculta, intacta y almacenada la información de un empleado en el sistema para su uso en un futuro.</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>Necesito consultar mi propia información existente como empleado  en el sistema.</t>
+  </si>
+  <si>
+    <t>En caso no arroje ningún registro existente de la información del empleado en el sistema.</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>Necesito consultar todos los clientes existentes en el sistema en la tabla de consultas.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de realizar consultas generales y específicas para verificar la existencia de uno solo o varios clientes en el sistema.</t>
+  </si>
+  <si>
+    <t>En caso no arroje ningún registro existente de clientes en el sistema.</t>
+  </si>
+  <si>
+    <t>Necesito registrar un cliente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de almacenar información de clientes nuevos en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de almacenar información de empleados nuevos en el sistema.</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>Con la finalidad de almacenar información de cargos nuevos en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de almacenar en el sistema los usuarios necesarios para el ingreso de estos mismos con sus tipos de acceso.</t>
+  </si>
+  <si>
+    <t>En caso de ya existir el número de identificación del cliente en el sistema.</t>
+  </si>
+  <si>
+    <t>Cuando digite el formulario para crear un cliente en el sistema. y realice la acción de "enviar".</t>
+  </si>
+  <si>
+    <t>El sistema verifica que el número de identificación del cliente a registrar ya existe, por tal razón, se mostrará en pantalla el mensaje “Este cliente ya existe. Inténtelo con uno nuevo”.</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>Necesito actualizar los datos de un cliente ya existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de mantener actualizada la información de cada registro de un cliente existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Necesito eliminar todos los datos de un cliente ya existente en el sistema. Esto incluye también registros completos que tengan una relación de uso frente a la información de dicho cliente.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de eliminar toda la información innecesaria de un cliente en el sistema.</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>Necesito desactivar todos los datos de un cliente ya existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de mantener oculta, intacta y almacenada la información de un cliente en el sistema para su uso en un futuro.</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>Necesito consultar mi propia información existente como cliente  en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de ver detalladamente los datos actualizados de mi información en el sistema.</t>
+  </si>
+  <si>
+    <t>En caso no arroje ningún registro existente de la información del cliente en el sistema.</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>Necesito consultar todos los proveedores existentes en el sistema en la tabla de consultas.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de realizar consultas generales y específicas para verificar la existencia de uno solo o varios proveedores en el sistema.</t>
+  </si>
+  <si>
+    <t>En caso no arroje ningún registro existente de proveedores en el sistema.</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>Necesito registrar un proveedor en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de almacenar información de proveedores nuevos en el sistema.</t>
+  </si>
+  <si>
+    <t>En caso de ya existir el número de identificación del proveedor en el sistema.</t>
+  </si>
+  <si>
+    <t>Cuando digite el formulario para crear un proveedor en el sistema. y realice la acción de "enviar".</t>
+  </si>
+  <si>
+    <t>El sistema verifica que el número de identificación del proveedor a registrar ya existe, por tal razón, se mostrará en pantalla el mensaje “Este proveedor ya existe. Inténtelo con uno nuevo”.</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>Necesito actualizar los datos de un proveedor ya existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de mantener actualizada la información de cada registro de un proveedor existente en el sistema.</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>Necesito eliminar todos los datos de un proveedor ya existente en el sistema. Esto incluye también registros completos que tengan una relación de uso frente a la información de dicho proveedor.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de eliminar toda la información innecesaria de un proveedor en el sistema.</t>
+  </si>
+  <si>
+    <t>Necesito desactivar todos los datos de un proveedor ya existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de mantener oculta, intacta y almacenada la información de un proveedor en el sistema para su uso en un futuro.</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>Necesito consultar todas las materias primas existentes en el sistema en la tabla de consultas.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de realizar consultas generales y específicas para verificar la existencia de una sola o varias materias primas en el sistema.</t>
+  </si>
+  <si>
+    <t>En caso no arroje ningún registro existente de materias primas en el sistema.</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>Necesito registrar una materia prima en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de almacenar información de materias primas nuevas en el sistema.</t>
+  </si>
+  <si>
+    <t>En caso de ya existir el número de identificación de la materia prima en el sistema.</t>
+  </si>
+  <si>
+    <t>Cuando digite el formulario para crear una materia prima en el sistema. y realice la acción de "enviar".</t>
+  </si>
+  <si>
+    <t>El sistema verifica que el número de identificación de la materia prima a registrar ya existe, por tal razón, se mostrará en pantalla el mensaje “Esta materia prima ya existe. Inténtelo con una nueva”.</t>
+  </si>
+  <si>
+    <t>Necesito actualizar los datos de una materia prima ya existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de mantener actualizada la información de cada registro de una materia prima existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Necesito eliminar todos los datos de una materia prima ya existente en el sistema. Esto incluye también registros completos que tengan una relación de uso frente a la información de dicha materia prima.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de eliminar toda la información innecesaria de una materia prima en el sistema.</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>Necesito desactivar todos los datos de una materia prima ya existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de mantener oculta, intacta y almacenada la información de una materia prima en el sistema para su uso en un futuro.</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>Necesito consultar todos los productos existentes en el sistema en la tabla de consultas.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de realizar consultas generales y específicas para verificar la existencia de uno solo o varios productos en el sistema.</t>
+  </si>
+  <si>
+    <t>En caso no arroje ningún registro existente de productos en el sistema.</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>Necesito registrar un producto en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de almacenar información de productos nuevos en el sistema.</t>
+  </si>
+  <si>
+    <t>En caso de ya existir el número de identificación del producto en el sistema.</t>
+  </si>
+  <si>
+    <t>Cuando digite el formulario para crear un producto en el sistema. y realice la acción de "enviar".</t>
+  </si>
+  <si>
+    <t>El sistema verifica que el número de identificación del producto a registrar ya existe, por tal razón, se mostrará en pantalla el mensaje “Este producto ya existe. Inténtelo con uno nuevo”.</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>Necesito actualizar los datos de un producto ya existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de mantener actualizada la información de cada registro de un producto existente en el sistema.</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>Necesito eliminar todos los datos de un producto ya existente en el sistema. Esto incluye también registros completos que tengan una relación de uso frente a la información de dicho producto.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de eliminar toda la información innecesaria de un producto en el sistema.</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>Necesito desactivar todos los datos de un producto ya existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de mantener oculta, intacta y almacenada la información de un producto en el sistema para su uso en un futuro.</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>En caso no arroje ningún registro existente de facturas de compra en el sistema.</t>
+  </si>
+  <si>
+    <t>Necesito consultar todas las facturas de compra existentes en el sistema en la tabla de consultas.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de realizar consultas generales y específicas para verificar la existencia de una sola o varias facturas de compra en el sistema.</t>
+  </si>
+  <si>
+    <t>Necesito registrar una factura de compra en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de almacenar información de facturas de compra nuevas en el sistema.</t>
+  </si>
+  <si>
+    <t>En caso de ya existir el número de identificación de la factura de compra en el sistema.</t>
+  </si>
+  <si>
+    <t>Cuando digite el formulario para crear una factura de compra en el sistema. y realice la acción de "enviar".</t>
+  </si>
+  <si>
+    <t>El sistema verifica que el número de identificación de la factura de compra a registrar ya existe, por tal razón, se mostrará en pantalla el mensaje “Esta factura de compra ya existe. Inténtelo con una nueva”.</t>
+  </si>
+  <si>
+    <t>Necesito actualizar los datos de una factura de compra ya existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de mantener actualizada la información de cada registro de una factura de compra existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Necesito eliminar todos los datos de una factura de compra ya existente en el sistema. Esto incluye también registros completos que tengan una relación de uso frente a la información de dicha factura de compra.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de eliminar toda la información innecesaria de una factura de compra en el sistema.</t>
+  </si>
+  <si>
+    <t>Necesito desactivar todos los datos de una factura de compra ya existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de mantener oculta, intacta y almacenada la información de una factura de compra en el sistema para su uso en un futuro.</t>
+  </si>
+  <si>
+    <t>Necesito consultar todas las factura de compra existentes en el sistema en la tabla de consultas.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de realizar consultas generales y específicas para verificar la existencia de una sola o varias factura de compra en el sistema.</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>Necesito consultar todas las facturas de venta existentes en el sistema en la tabla de consultas.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de realizar consultas generales y específicas para verificar la existencia de una sola o varias facturas de venta en el sistema.</t>
+  </si>
+  <si>
+    <t>En caso no arroje ningún registro existente de facturas de venta en el sistema.</t>
+  </si>
+  <si>
+    <t>Necesito registrar una factura de venta en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de almacenar información de facturas de venta nuevas en el sistema.</t>
+  </si>
+  <si>
+    <t>En caso de ya existir el número de identificación de la factura de venta en el sistema.</t>
+  </si>
+  <si>
+    <t>Cuando digite el formulario para crear una factura de venta en el sistema. y realice la acción de "enviar".</t>
+  </si>
+  <si>
+    <t>El sistema verifica que el número de identificación de la factura de venta a registrar ya existe, por tal razón, se mostrará en pantalla el mensaje “Esta factura de venta ya existe. Inténtelo con una nueva”.</t>
+  </si>
+  <si>
+    <t>Necesito actualizar los datos de una factura de venta ya existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de mantener actualizada la información de cada registro de una factura de venta existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Necesito eliminar todos los datos de una factura de venta ya existente en el sistema. Esto incluye también registros completos que tengan una relación de uso frente a la información de dicha factura de venta.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de eliminar toda la información innecesaria de una factura de venta en el sistema.</t>
+  </si>
+  <si>
+    <t>Necesito desactivar todos los datos de una factura de venta ya existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de mantener oculta, intacta y almacenada la información de una factura de venta en el sistema para su uso en un futuro.</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>Necesito consultar todas las facturas de venta a mi nombre existentes en el sistema en la tabla de consultas.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de realizar consultas específicas para verificar la existencia de las compras de productos a mi nombre en el sistema.</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>Necesito consultar todos los pedidos existentes en el sistema en la tabla de consultas.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de realizar consultas generales y específicas para verificar la existencia de uno solo o varios pedidos en el sistema.</t>
+  </si>
+  <si>
+    <t>En caso no arroje ningún registro existente de pedidos en el sistema.</t>
+  </si>
+  <si>
+    <t>Necesito registrar un pedido en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de almacenar información de pedidos nuevos en el sistema.</t>
+  </si>
+  <si>
+    <t>En caso de ya existir el número de identificación del pedido en el sistema.</t>
+  </si>
+  <si>
+    <t>Cuando digite el formulario para crear un pedido en el sistema. y realice la acción de "enviar".</t>
+  </si>
+  <si>
+    <t>El sistema verifica que el número de identificación del pedido a registrar ya existe, por tal razón, se mostrará en pantalla el mensaje “Este pedido ya existe. Inténtelo con uno nuevo”.</t>
+  </si>
+  <si>
+    <t>Necesito actualizar los datos de un pedido ya existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de mantener actualizada la información de cada registro de un pedido existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Necesito eliminar todos los datos de un pedido ya existente en el sistema. Esto incluye también registros completos que tengan una relación de uso frente a la información de dicho pedido.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de eliminar toda la información innecesaria de un pedido en el sistema.</t>
+  </si>
+  <si>
+    <t>Necesito desactivar todos los datos de un pedido ya existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de mantener oculta, intacta y almacenada la información de un pedido en el sistema para su uso en un futuro.</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,12 +895,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,8 +944,20 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -527,11 +1107,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -569,30 +1169,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -610,9 +1187,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -622,35 +1196,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -661,14 +1208,157 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,13 +1575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z992"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -940,18 +1630,18 @@
     <row r="2" spans="1:26" ht="15" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="13" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -977,25 +1667,25 @@
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="77" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="3"/>
@@ -1017,32 +1707,32 @@
     </row>
     <row r="4" spans="1:26" ht="45">
       <c r="A4" s="7"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>58</v>
+      <c r="D4" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>57</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1063,23 +1753,23 @@
     </row>
     <row r="5" spans="1:26" ht="60">
       <c r="A5" s="7"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="30">
+      <c r="B5" s="44"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="20">
         <v>2</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="26" t="s">
+      <c r="I5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="3"/>
@@ -1129,16 +1819,16 @@
     </row>
     <row r="7" spans="1:26" ht="120">
       <c r="A7" s="3"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="31" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="8">
@@ -1150,8 +1840,8 @@
       <c r="H7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>28</v>
+      <c r="I7" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>19</v>
@@ -1175,21 +1865,21 @@
     </row>
     <row r="8" spans="1:26" ht="75">
       <c r="A8" s="3"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="8">
         <v>2</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>27</v>
+      <c r="G8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>20</v>
@@ -1241,32 +1931,32 @@
     </row>
     <row r="10" spans="1:26" ht="45">
       <c r="A10" s="3"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>23</v>
+      <c r="E10" s="32" t="s">
+        <v>129</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1285,23 +1975,23 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="60">
+    <row r="11" spans="1:26" ht="75">
       <c r="A11" s="3"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="8">
         <v>2</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="I11" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>34</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>20</v>
@@ -1353,32 +2043,32 @@
     </row>
     <row r="13" spans="1:26" ht="60">
       <c r="A13" s="3"/>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>68</v>
+      <c r="E13" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="F13" s="8">
         <v>1</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1427,32 +2117,32 @@
     </row>
     <row r="15" spans="1:26" ht="150">
       <c r="A15" s="3"/>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>72</v>
+      <c r="E15" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="F15" s="8">
         <v>1</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1501,32 +2191,32 @@
     </row>
     <row r="17" spans="1:26" ht="75">
       <c r="A17" s="3"/>
-      <c r="B17" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>40</v>
       </c>
       <c r="F17" s="8">
         <v>1</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1575,32 +2265,32 @@
     </row>
     <row r="19" spans="1:26" ht="95.25" customHeight="1">
       <c r="A19" s="3"/>
-      <c r="B19" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="18" t="s">
+      <c r="B19" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="31" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="8">
         <v>1</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1621,21 +2311,21 @@
     </row>
     <row r="20" spans="1:26" ht="75">
       <c r="A20" s="3"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="8">
         <v>2</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>27</v>
+      <c r="G20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>20</v>
@@ -1660,7 +2350,7 @@
     <row r="21" spans="1:26">
       <c r="A21" s="3"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="12"/>
@@ -1687,32 +2377,32 @@
     </row>
     <row r="22" spans="1:26" ht="45">
       <c r="A22" s="3"/>
-      <c r="B22" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>78</v>
+      <c r="B22" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="F22" s="8">
         <v>1</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1733,23 +2423,23 @@
     </row>
     <row r="23" spans="1:26" ht="60">
       <c r="A23" s="3"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="30">
+      <c r="B23" s="28"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="20">
         <v>2</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="26" t="s">
+      <c r="I23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="17" t="s">
         <v>13</v>
       </c>
       <c r="K23" s="3"/>
@@ -1772,7 +2462,7 @@
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="27"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
@@ -1799,32 +2489,32 @@
     </row>
     <row r="25" spans="1:26" ht="90">
       <c r="A25" s="3"/>
-      <c r="B25" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="18" t="s">
+      <c r="B25" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="31" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="8">
         <v>1</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>51</v>
+      <c r="I25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -1845,21 +2535,21 @@
     </row>
     <row r="26" spans="1:26" ht="75">
       <c r="A26" s="3"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="8">
         <v>2</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>27</v>
+      <c r="G26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>20</v>
@@ -1883,11 +2573,11 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="3"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="39"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -1911,32 +2601,32 @@
     </row>
     <row r="28" spans="1:26" ht="75" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>78</v>
+      <c r="B28" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="F28" s="8">
         <v>1</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="20" t="s">
+      <c r="I28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -1957,23 +2647,23 @@
     </row>
     <row r="29" spans="1:26" ht="60">
       <c r="A29" s="3"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="30">
+      <c r="B29" s="28"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="20">
         <v>2</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="26" t="s">
+      <c r="I29" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="17" t="s">
         <v>13</v>
       </c>
       <c r="K29" s="3"/>
@@ -1995,15 +2685,15 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -2021,34 +2711,34 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="45">
+    <row r="31" spans="1:26" ht="75">
       <c r="A31" s="3"/>
-      <c r="B31" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="8">
+      <c r="D31" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="57">
         <v>1</v>
       </c>
-      <c r="G31" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="20" t="s">
+      <c r="G31" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2067,27 +2757,17 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" ht="60">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="30">
-        <v>2</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="I32" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="26" t="s">
-        <v>13</v>
-      </c>
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -2105,17 +2785,35 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="75">
       <c r="A33" s="3"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="B33" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="57">
+        <v>1</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J33" s="56" t="s">
+        <v>95</v>
+      </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -2133,35 +2831,17 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" spans="1:26" ht="45">
+    <row r="34" spans="1:26">
       <c r="A34" s="3"/>
-      <c r="B34" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="8">
-        <v>1</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -2179,26 +2859,34 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="1:26" ht="60">
+    <row r="35" spans="1:26" ht="75">
       <c r="A35" s="3"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="8">
-        <v>2</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>65</v>
+      <c r="B35" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="57">
+        <v>1</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2217,17 +2905,17 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26">
       <c r="A36" s="3"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -2245,34 +2933,34 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" ht="60">
+    <row r="37" spans="1:26" ht="75">
       <c r="A37" s="3"/>
-      <c r="B37" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="8">
+      <c r="B37" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="57">
         <v>1</v>
       </c>
-      <c r="G37" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>31</v>
+      <c r="G37" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J37" s="56" t="s">
+        <v>95</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -2291,17 +2979,17 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26">
       <c r="A38" s="3"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -2319,38 +3007,36 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" ht="150">
+    <row r="39" spans="1:26" ht="75">
       <c r="A39" s="3"/>
-      <c r="B39" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" s="8">
+      <c r="B39" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="57">
         <v>1</v>
       </c>
-      <c r="G39" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="20" t="s">
+      <c r="G39" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J39" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39" s="47" t="s">
-        <v>85</v>
-      </c>
+      <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -2367,17 +3053,17 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26">
       <c r="A40" s="3"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -2397,32 +3083,32 @@
     </row>
     <row r="41" spans="1:26" ht="75">
       <c r="A41" s="3"/>
-      <c r="B41" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="8">
+      <c r="B41" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="57">
         <v>1</v>
       </c>
-      <c r="G41" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>31</v>
+      <c r="G41" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J41" s="56" t="s">
+        <v>95</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -2443,15 +3129,15 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -2471,32 +3157,32 @@
     </row>
     <row r="43" spans="1:26" ht="45">
       <c r="A43" s="3"/>
-      <c r="B43" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="46" t="s">
-        <v>82</v>
+      <c r="B43" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>56</v>
       </c>
       <c r="F43" s="8">
         <v>1</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I43" s="20" t="s">
+      <c r="I43" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="J43" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2515,25 +3201,25 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" ht="75">
+    <row r="44" spans="1:26" ht="60">
       <c r="A44" s="3"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="30">
+      <c r="B44" s="44"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="20">
         <v>2</v>
       </c>
-      <c r="G44" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H44" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I44" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" s="31" t="s">
+      <c r="G44" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" s="17" t="s">
         <v>13</v>
       </c>
       <c r="K44" s="3"/>
@@ -2556,7 +3242,7 @@
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="10"/>
-      <c r="C45" s="27"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="12"/>
@@ -2583,32 +3269,32 @@
     </row>
     <row r="46" spans="1:26" ht="45">
       <c r="A46" s="3"/>
-      <c r="B46" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="18" t="s">
+      <c r="B46" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="22" t="s">
-        <v>87</v>
+      <c r="D46" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="F46" s="8">
         <v>1</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H46" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" s="20" t="s">
+      <c r="I46" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="J46" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -2629,24 +3315,24 @@
     </row>
     <row r="47" spans="1:26" ht="60">
       <c r="A47" s="3"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="30">
+      <c r="B47" s="28"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="8">
         <v>2</v>
       </c>
-      <c r="G47" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H47" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="I47" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" s="31" t="s">
-        <v>90</v>
+      <c r="G47" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -2693,17 +3379,35 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="60">
       <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="B49" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -2723,15 +3427,15 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -2749,18 +3453,38 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="150">
       <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
+      <c r="B51" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="8">
+        <v>1</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" s="26" t="s">
+        <v>82</v>
+      </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -2779,15 +3503,15 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -2805,17 +3529,35 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="75">
       <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+      <c r="B53" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="8">
+        <v>1</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -2835,15 +3577,15 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -2861,17 +3603,35 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="45">
       <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="B55" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="8">
+        <v>1</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -2889,17 +3649,27 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="75">
       <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="20">
+        <v>2</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -2919,15 +3689,15 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -2945,17 +3715,35 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="45">
       <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+      <c r="B58" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F58" s="8">
+        <v>1</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -2973,17 +3761,27 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="60">
       <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="20">
+        <v>2</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I59" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -3003,15 +3801,15 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -3029,17 +3827,35 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="45">
       <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
+      <c r="B61" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" s="8">
+        <v>1</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -3057,17 +3873,27 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="75">
       <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="8">
+        <v>2</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -3087,15 +3913,15 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -3113,17 +3939,35 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="60">
       <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
+      <c r="B64" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F64" s="8">
+        <v>1</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -3143,15 +3987,15 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -3169,17 +4013,35 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="150">
       <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
+      <c r="B66" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F66" s="8">
+        <v>1</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
@@ -3199,15 +4061,15 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -3225,17 +4087,35 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="75">
       <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
+      <c r="B68" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="8">
+        <v>1</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -3255,15 +4135,15 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -3281,17 +4161,35 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="45">
       <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
+      <c r="B70" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" s="8">
+        <v>1</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
@@ -3309,17 +4207,27 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="75">
       <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="20">
+        <v>2</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H71" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="I71" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J71" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
@@ -3339,15 +4247,15 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
+      <c r="B72" s="68"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="70"/>
+      <c r="J72" s="70"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
@@ -3365,17 +4273,35 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="45">
       <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
+      <c r="B73" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F73" s="8">
+        <v>1</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -3393,17 +4319,27 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="60">
       <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="20">
+        <v>2</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H74" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I74" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J74" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -3423,15 +4359,15 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -3449,17 +4385,35 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="45">
       <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
+      <c r="B76" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F76" s="8">
+        <v>1</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -3477,17 +4431,27 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="60">
       <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="8">
+        <v>2</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -3507,15 +4471,15 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
@@ -3533,17 +4497,35 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="60">
       <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
+      <c r="B79" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F79" s="8">
+        <v>1</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
@@ -3563,15 +4545,15 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
@@ -3589,17 +4571,35 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="150">
       <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
+      <c r="B81" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F81" s="8">
+        <v>1</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J81" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
@@ -3619,15 +4619,15 @@
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
@@ -3645,17 +4645,35 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="75">
       <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
+      <c r="B83" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F83" s="8">
+        <v>1</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J83" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
@@ -3675,15 +4693,15 @@
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
@@ -3701,17 +4719,35 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="45">
       <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
+      <c r="B85" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E85" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F85" s="8">
+        <v>1</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J85" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
@@ -3729,17 +4765,27 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="75">
       <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="20">
+        <v>2</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H86" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="I86" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J86" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
@@ -3759,15 +4805,15 @@
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="70"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="70"/>
+      <c r="J87" s="70"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
@@ -3785,17 +4831,35 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="45">
       <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
+      <c r="B88" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E88" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="F88" s="8">
+        <v>1</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J88" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
@@ -3813,17 +4877,27 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="75">
       <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="20">
+        <v>2</v>
+      </c>
+      <c r="G89" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H89" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I89" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J89" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
@@ -3843,15 +4917,15 @@
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
@@ -3869,17 +4943,35 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="45">
       <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
+      <c r="B91" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E91" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="F91" s="8">
+        <v>1</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J91" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -3897,17 +4989,27 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="75">
       <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="8">
+        <v>2</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="J92" s="13" t="s">
+        <v>154</v>
+      </c>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
@@ -3927,15 +5029,15 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -3953,17 +5055,35 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="60">
       <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
+      <c r="B94" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F94" s="8">
+        <v>1</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J94" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
@@ -3983,15 +5103,15 @@
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
@@ -4009,17 +5129,35 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="150">
       <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
+      <c r="B96" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F96" s="8">
+        <v>1</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J96" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
@@ -4039,15 +5177,15 @@
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
@@ -4065,17 +5203,35 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="75">
       <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
+      <c r="B98" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F98" s="8">
+        <v>1</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J98" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
@@ -4095,15 +5251,15 @@
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
@@ -4121,17 +5277,35 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="45">
       <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
+      <c r="B100" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="C100" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D100" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E100" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="F100" s="8">
+        <v>1</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J100" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
@@ -4149,17 +5323,27 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="75">
       <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="20">
+        <v>2</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H101" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I101" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J101" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
@@ -4179,15 +5363,15 @@
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="70"/>
+      <c r="H102" s="70"/>
+      <c r="I102" s="70"/>
+      <c r="J102" s="70"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
@@ -4205,17 +5389,35 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="45">
       <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
+      <c r="B103" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C103" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="E103" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F103" s="8">
+        <v>1</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J103" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
@@ -4233,17 +5435,27 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="60">
       <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="20">
+        <v>2</v>
+      </c>
+      <c r="G104" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H104" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I104" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J104" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
@@ -4263,15 +5475,15 @@
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
@@ -4289,17 +5501,35 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="45">
       <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
+      <c r="B106" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E106" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F106" s="8">
+        <v>1</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J106" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
@@ -4317,17 +5547,27 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="75">
       <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="8">
+        <v>2</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I107" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="J107" s="13" t="s">
+        <v>174</v>
+      </c>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
@@ -4347,15 +5587,15 @@
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
@@ -4373,17 +5613,35 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="60">
       <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
+      <c r="B109" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F109" s="8">
+        <v>1</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I109" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J109" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
@@ -4403,15 +5661,15 @@
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
@@ -4429,17 +5687,35 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="150">
       <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
+      <c r="B111" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F111" s="8">
+        <v>1</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I111" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J111" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
@@ -4459,15 +5735,15 @@
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
@@ -4485,17 +5761,35 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="75">
       <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
+      <c r="B113" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F113" s="8">
+        <v>1</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J113" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
@@ -4515,15 +5809,15 @@
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
@@ -4541,17 +5835,35 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="45" customHeight="1">
       <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
+      <c r="B115" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="C115" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D115" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="E115" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F115" s="8">
+        <v>1</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I115" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J115" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
@@ -4569,17 +5881,27 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="60">
       <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
+      <c r="B116" s="42"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="20">
+        <v>2</v>
+      </c>
+      <c r="G116" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H116" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I116" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J116" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
@@ -4599,15 +5921,15 @@
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
+      <c r="B117" s="68"/>
+      <c r="C117" s="69"/>
+      <c r="D117" s="70"/>
+      <c r="E117" s="70"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="70"/>
+      <c r="H117" s="70"/>
+      <c r="I117" s="70"/>
+      <c r="J117" s="70"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
@@ -4625,17 +5947,35 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="45">
       <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
+      <c r="B118" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C118" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="E118" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="F118" s="8">
+        <v>1</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J118" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
@@ -4653,17 +5993,27 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="60">
       <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
+      <c r="B119" s="44"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="20">
+        <v>2</v>
+      </c>
+      <c r="G119" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H119" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="I119" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J119" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
@@ -4683,15 +6033,15 @@
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
@@ -4709,17 +6059,35 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="45">
       <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
+      <c r="B121" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E121" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F121" s="8">
+        <v>1</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I121" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J121" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
@@ -4737,17 +6105,27 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="75">
       <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="8">
+        <v>2</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="I122" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="J122" s="13" t="s">
+        <v>194</v>
+      </c>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
@@ -4767,15 +6145,15 @@
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
@@ -4793,17 +6171,35 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="60">
       <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
+      <c r="B124" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F124" s="8">
+        <v>1</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I124" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J124" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
@@ -4823,15 +6219,15 @@
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
@@ -4849,17 +6245,35 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="150">
       <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
+      <c r="B126" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F126" s="8">
+        <v>1</v>
+      </c>
+      <c r="G126" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J126" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
@@ -4879,15 +6293,15 @@
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
@@ -4905,17 +6319,35 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="75">
       <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
+      <c r="B128" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F128" s="8">
+        <v>1</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J128" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
@@ -4935,15 +6367,15 @@
     </row>
     <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
@@ -4961,17 +6393,35 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="45" customHeight="1">
       <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
+      <c r="B130" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="C130" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="E130" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="F130" s="8">
+        <v>1</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I130" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J130" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
@@ -4989,17 +6439,27 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="60">
       <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
+      <c r="B131" s="42"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="20">
+        <v>2</v>
+      </c>
+      <c r="G131" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H131" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="I131" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J131" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
@@ -5019,15 +6479,15 @@
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
+      <c r="B132" s="68"/>
+      <c r="C132" s="69"/>
+      <c r="D132" s="70"/>
+      <c r="E132" s="70"/>
+      <c r="F132" s="71"/>
+      <c r="G132" s="70"/>
+      <c r="H132" s="70"/>
+      <c r="I132" s="70"/>
+      <c r="J132" s="70"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
@@ -5045,17 +6505,35 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="45" customHeight="1">
       <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
+      <c r="B133" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C133" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="E133" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="F133" s="8">
+        <v>1</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H133" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I133" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J133" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
@@ -5073,17 +6551,27 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="60">
       <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
+      <c r="B134" s="44"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="20">
+        <v>2</v>
+      </c>
+      <c r="G134" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H134" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="I134" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J134" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
@@ -5103,15 +6591,15 @@
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
@@ -5129,17 +6617,35 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="45">
       <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
+      <c r="B136" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="C136" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="E136" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="F136" s="8">
+        <v>1</v>
+      </c>
+      <c r="G136" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I136" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J136" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
@@ -5157,17 +6663,27 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="75">
       <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
+      <c r="B137" s="28"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="8">
+        <v>2</v>
+      </c>
+      <c r="G137" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H137" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="I137" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="J137" s="13" t="s">
+        <v>218</v>
+      </c>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
@@ -5187,15 +6703,15 @@
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
@@ -5213,17 +6729,35 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="60">
       <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
+      <c r="B139" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F139" s="8">
+        <v>1</v>
+      </c>
+      <c r="G139" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H139" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I139" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J139" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
@@ -5243,15 +6777,15 @@
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1">
       <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
@@ -5269,17 +6803,35 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="165">
       <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
+      <c r="B141" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F141" s="8">
+        <v>1</v>
+      </c>
+      <c r="G141" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H141" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I141" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J141" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
@@ -5299,15 +6851,15 @@
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1">
       <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
@@ -5325,17 +6877,35 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="75">
       <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
+      <c r="B143" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F143" s="8">
+        <v>1</v>
+      </c>
+      <c r="G143" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H143" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I143" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J143" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
@@ -5355,15 +6925,15 @@
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1">
       <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="11"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
@@ -5381,17 +6951,35 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="45" customHeight="1">
       <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
+      <c r="B145" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="C145" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D145" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="E145" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="F145" s="8">
+        <v>1</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H145" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I145" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J145" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
@@ -5409,17 +6997,27 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="60">
       <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
+      <c r="B146" s="42"/>
+      <c r="C146" s="30"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="20">
+        <v>2</v>
+      </c>
+      <c r="G146" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H146" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="I146" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J146" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
@@ -5439,15 +7037,15 @@
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1">
       <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
+      <c r="B147" s="68"/>
+      <c r="C147" s="69"/>
+      <c r="D147" s="70"/>
+      <c r="E147" s="70"/>
+      <c r="F147" s="71"/>
+      <c r="G147" s="70"/>
+      <c r="H147" s="70"/>
+      <c r="I147" s="70"/>
+      <c r="J147" s="70"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
@@ -5465,17 +7063,35 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="45">
       <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
+      <c r="B148" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="C148" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="E148" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="F148" s="8">
+        <v>1</v>
+      </c>
+      <c r="G148" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H148" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I148" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J148" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
@@ -5493,17 +7109,27 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="60">
       <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="30"/>
+      <c r="F149" s="20">
+        <v>2</v>
+      </c>
+      <c r="G149" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H149" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="I149" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J149" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
@@ -5523,15 +7149,15 @@
     </row>
     <row r="150" spans="1:26" ht="15.75" customHeight="1">
       <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
@@ -5549,17 +7175,35 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="45">
       <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
+      <c r="B151" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C151" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="E151" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="F151" s="8">
+        <v>1</v>
+      </c>
+      <c r="G151" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H151" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I151" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J151" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
@@ -5577,17 +7221,27 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="75">
       <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
+      <c r="B152" s="28"/>
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="8">
+        <v>2</v>
+      </c>
+      <c r="G152" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H152" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="I152" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="J152" s="13" t="s">
+        <v>240</v>
+      </c>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
@@ -5607,15 +7261,15 @@
     </row>
     <row r="153" spans="1:26" ht="15.75" customHeight="1">
       <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
@@ -5633,17 +7287,35 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="60">
       <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
+      <c r="B154" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="F154" s="8">
+        <v>1</v>
+      </c>
+      <c r="G154" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H154" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I154" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J154" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
@@ -5663,15 +7335,15 @@
     </row>
     <row r="155" spans="1:26" ht="15.75" customHeight="1">
       <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
@@ -5689,17 +7361,35 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="150">
       <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
-      <c r="J156" s="3"/>
+      <c r="B156" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F156" s="8">
+        <v>1</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H156" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I156" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J156" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
@@ -5719,15 +7409,15 @@
     </row>
     <row r="157" spans="1:26" ht="15.75" customHeight="1">
       <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="11"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
       <c r="M157" s="3"/>
@@ -5745,17 +7435,35 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="75">
       <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
-      <c r="J158" s="3"/>
+      <c r="B158" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F158" s="8">
+        <v>1</v>
+      </c>
+      <c r="G158" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H158" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I158" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J158" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
       <c r="M158" s="3"/>
@@ -5775,15 +7483,15 @@
     </row>
     <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="11"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
       <c r="M159" s="3"/>
@@ -5801,17 +7509,35 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="45" customHeight="1">
       <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
+      <c r="B160" s="72" t="s">
+        <v>232</v>
+      </c>
+      <c r="C160" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D160" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="E160" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="F160" s="8">
+        <v>1</v>
+      </c>
+      <c r="G160" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H160" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I160" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J160" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
       <c r="M160" s="3"/>
@@ -5829,17 +7555,27 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="60">
       <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
+      <c r="B161" s="42"/>
+      <c r="C161" s="30"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="20">
+        <v>2</v>
+      </c>
+      <c r="G161" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H161" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="I161" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J161" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
@@ -5859,15 +7595,15 @@
     </row>
     <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11"/>
+      <c r="J162" s="11"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
       <c r="M162" s="3"/>
@@ -5885,17 +7621,35 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="45">
       <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
+      <c r="B163" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="C163" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D163" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="E163" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="F163" s="8">
+        <v>1</v>
+      </c>
+      <c r="G163" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H163" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I163" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J163" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
       <c r="M163" s="3"/>
@@ -5913,17 +7667,27 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="60">
       <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
+      <c r="B164" s="42"/>
+      <c r="C164" s="30"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="30"/>
+      <c r="F164" s="20">
+        <v>2</v>
+      </c>
+      <c r="G164" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H164" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="I164" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J164" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
@@ -5943,15 +7707,15 @@
     </row>
     <row r="165" spans="1:26" ht="15.75" customHeight="1">
       <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
+      <c r="B165" s="68"/>
+      <c r="C165" s="69"/>
+      <c r="D165" s="70"/>
+      <c r="E165" s="70"/>
+      <c r="F165" s="71"/>
+      <c r="G165" s="70"/>
+      <c r="H165" s="70"/>
+      <c r="I165" s="70"/>
+      <c r="J165" s="70"/>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
@@ -5969,17 +7733,35 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="45">
       <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
+      <c r="B166" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="C166" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="E166" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="F166" s="8">
+        <v>1</v>
+      </c>
+      <c r="G166" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H166" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I166" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J166" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
@@ -5997,17 +7779,27 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="60">
       <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
+      <c r="B167" s="44"/>
+      <c r="C167" s="30"/>
+      <c r="D167" s="33"/>
+      <c r="E167" s="30"/>
+      <c r="F167" s="20">
+        <v>2</v>
+      </c>
+      <c r="G167" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H167" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="I167" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J167" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
@@ -6027,15 +7819,15 @@
     </row>
     <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="11"/>
+      <c r="J168" s="11"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
@@ -6053,17 +7845,35 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="45">
       <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
+      <c r="B169" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="C169" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="E169" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F169" s="8">
+        <v>1</v>
+      </c>
+      <c r="G169" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H169" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I169" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J169" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
@@ -6081,17 +7891,27 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="60">
       <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
+      <c r="B170" s="28"/>
+      <c r="C170" s="30"/>
+      <c r="D170" s="30"/>
+      <c r="E170" s="30"/>
+      <c r="F170" s="8">
+        <v>2</v>
+      </c>
+      <c r="G170" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H170" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="I170" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="J170" s="13" t="s">
+        <v>263</v>
+      </c>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
@@ -6111,15 +7931,15 @@
     </row>
     <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="11"/>
+      <c r="J171" s="11"/>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
@@ -6137,17 +7957,35 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="60">
       <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
+      <c r="B172" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C172" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F172" s="8">
+        <v>1</v>
+      </c>
+      <c r="G172" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H172" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I172" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J172" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
@@ -6167,15 +8005,15 @@
     </row>
     <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
@@ -6193,17 +8031,35 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="150">
       <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
+      <c r="B174" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C174" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F174" s="8">
+        <v>1</v>
+      </c>
+      <c r="G174" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H174" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I174" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J174" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
@@ -6223,15 +8079,15 @@
     </row>
     <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
-      <c r="J175" s="3"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="11"/>
+      <c r="J175" s="11"/>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
@@ -6249,17 +8105,35 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="75">
       <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
+      <c r="B176" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C176" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="F176" s="8">
+        <v>1</v>
+      </c>
+      <c r="G176" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H176" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I176" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J176" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
@@ -6279,15 +8153,15 @@
     </row>
     <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="3"/>
-      <c r="J177" s="3"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="11"/>
+      <c r="J177" s="11"/>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
@@ -6305,17 +8179,35 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="45">
       <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
-      <c r="J178" s="3"/>
+      <c r="B178" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="C178" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D178" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="E178" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="F178" s="8">
+        <v>1</v>
+      </c>
+      <c r="G178" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H178" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I178" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J178" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
@@ -6333,17 +8225,27 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="60">
       <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
+      <c r="B179" s="42"/>
+      <c r="C179" s="30"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="30"/>
+      <c r="F179" s="20">
+        <v>2</v>
+      </c>
+      <c r="G179" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H179" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="I179" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J179" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
@@ -6363,15 +8265,15 @@
     </row>
     <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
+      <c r="B180" s="73"/>
+      <c r="C180" s="74"/>
+      <c r="D180" s="75"/>
+      <c r="E180" s="75"/>
+      <c r="F180" s="76"/>
+      <c r="G180" s="75"/>
+      <c r="H180" s="75"/>
+      <c r="I180" s="75"/>
+      <c r="J180" s="75"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
@@ -6389,17 +8291,35 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="45">
       <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
+      <c r="B181" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="C181" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D181" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="E181" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="F181" s="8">
+        <v>1</v>
+      </c>
+      <c r="G181" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H181" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I181" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J181" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
@@ -6417,17 +8337,27 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="60">
       <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
-      <c r="J182" s="3"/>
+      <c r="B182" s="42"/>
+      <c r="C182" s="30"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="30"/>
+      <c r="F182" s="20">
+        <v>2</v>
+      </c>
+      <c r="G182" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H182" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="I182" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J182" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
@@ -6447,15 +8377,15 @@
     </row>
     <row r="183" spans="1:26" ht="15.75" customHeight="1">
       <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="11"/>
+      <c r="J183" s="11"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
@@ -6473,17 +8403,35 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="45">
       <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
-      <c r="J184" s="3"/>
+      <c r="B184" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="C184" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D184" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="E184" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F184" s="8">
+        <v>1</v>
+      </c>
+      <c r="G184" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H184" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I184" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J184" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
       <c r="M184" s="3"/>
@@ -6501,17 +8449,27 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="60">
       <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
+      <c r="B185" s="28"/>
+      <c r="C185" s="30"/>
+      <c r="D185" s="30"/>
+      <c r="E185" s="30"/>
+      <c r="F185" s="8">
+        <v>2</v>
+      </c>
+      <c r="G185" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H185" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="I185" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="J185" s="13" t="s">
+        <v>263</v>
+      </c>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
@@ -6531,15 +8489,15 @@
     </row>
     <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="11"/>
+      <c r="J186" s="11"/>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
       <c r="M186" s="3"/>
@@ -6557,17 +8515,35 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="60">
       <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
+      <c r="B187" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D187" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F187" s="8">
+        <v>1</v>
+      </c>
+      <c r="G187" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H187" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I187" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J187" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
@@ -6587,15 +8563,15 @@
     </row>
     <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="11"/>
+      <c r="J188" s="11"/>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
@@ -6613,17 +8589,35 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="75">
       <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
+      <c r="B189" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D189" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="F189" s="8">
+        <v>1</v>
+      </c>
+      <c r="G189" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H189" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I189" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J189" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
@@ -6643,15 +8637,15 @@
     </row>
     <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
+      <c r="B190" s="68"/>
+      <c r="C190" s="70"/>
+      <c r="D190" s="70"/>
+      <c r="E190" s="70"/>
+      <c r="F190" s="71"/>
+      <c r="G190" s="70"/>
+      <c r="H190" s="70"/>
+      <c r="I190" s="70"/>
+      <c r="J190" s="70"/>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
@@ -29125,176 +31119,130 @@
       <c r="Y992" s="3"/>
       <c r="Z992" s="3"/>
     </row>
-    <row r="993" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A993" s="3"/>
-      <c r="B993" s="3"/>
-      <c r="C993" s="3"/>
-      <c r="D993" s="3"/>
-      <c r="E993" s="3"/>
-      <c r="F993" s="3"/>
-      <c r="G993" s="3"/>
-      <c r="H993" s="3"/>
-      <c r="I993" s="3"/>
-      <c r="J993" s="3"/>
-      <c r="K993" s="3"/>
-      <c r="L993" s="3"/>
-      <c r="M993" s="3"/>
-      <c r="N993" s="3"/>
-      <c r="O993" s="3"/>
-      <c r="P993" s="3"/>
-      <c r="Q993" s="3"/>
-      <c r="R993" s="3"/>
-      <c r="S993" s="3"/>
-      <c r="T993" s="3"/>
-      <c r="U993" s="3"/>
-      <c r="V993" s="3"/>
-      <c r="W993" s="3"/>
-      <c r="X993" s="3"/>
-      <c r="Y993" s="3"/>
-      <c r="Z993" s="3"/>
-    </row>
-    <row r="994" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A994" s="3"/>
-      <c r="B994" s="3"/>
-      <c r="C994" s="3"/>
-      <c r="D994" s="3"/>
-      <c r="E994" s="3"/>
-      <c r="F994" s="3"/>
-      <c r="G994" s="3"/>
-      <c r="H994" s="3"/>
-      <c r="I994" s="3"/>
-      <c r="J994" s="3"/>
-      <c r="K994" s="3"/>
-      <c r="L994" s="3"/>
-      <c r="M994" s="3"/>
-      <c r="N994" s="3"/>
-      <c r="O994" s="3"/>
-      <c r="P994" s="3"/>
-      <c r="Q994" s="3"/>
-      <c r="R994" s="3"/>
-      <c r="S994" s="3"/>
-      <c r="T994" s="3"/>
-      <c r="U994" s="3"/>
-      <c r="V994" s="3"/>
-      <c r="W994" s="3"/>
-      <c r="X994" s="3"/>
-      <c r="Y994" s="3"/>
-      <c r="Z994" s="3"/>
-    </row>
-    <row r="995" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A995" s="3"/>
-      <c r="B995" s="3"/>
-      <c r="C995" s="3"/>
-      <c r="D995" s="3"/>
-      <c r="E995" s="3"/>
-      <c r="F995" s="3"/>
-      <c r="G995" s="3"/>
-      <c r="H995" s="3"/>
-      <c r="I995" s="3"/>
-      <c r="J995" s="3"/>
-      <c r="K995" s="3"/>
-      <c r="L995" s="3"/>
-      <c r="M995" s="3"/>
-      <c r="N995" s="3"/>
-      <c r="O995" s="3"/>
-      <c r="P995" s="3"/>
-      <c r="Q995" s="3"/>
-      <c r="R995" s="3"/>
-      <c r="S995" s="3"/>
-      <c r="T995" s="3"/>
-      <c r="U995" s="3"/>
-      <c r="V995" s="3"/>
-      <c r="W995" s="3"/>
-      <c r="X995" s="3"/>
-      <c r="Y995" s="3"/>
-      <c r="Z995" s="3"/>
-    </row>
-    <row r="996" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A996" s="3"/>
-      <c r="B996" s="3"/>
-      <c r="C996" s="3"/>
-      <c r="D996" s="3"/>
-      <c r="E996" s="3"/>
-      <c r="F996" s="3"/>
-      <c r="G996" s="3"/>
-      <c r="H996" s="3"/>
-      <c r="I996" s="3"/>
-      <c r="J996" s="3"/>
-      <c r="K996" s="3"/>
-      <c r="L996" s="3"/>
-      <c r="M996" s="3"/>
-      <c r="N996" s="3"/>
-      <c r="O996" s="3"/>
-      <c r="P996" s="3"/>
-      <c r="Q996" s="3"/>
-      <c r="R996" s="3"/>
-      <c r="S996" s="3"/>
-      <c r="T996" s="3"/>
-      <c r="U996" s="3"/>
-      <c r="V996" s="3"/>
-      <c r="W996" s="3"/>
-      <c r="X996" s="3"/>
-      <c r="Y996" s="3"/>
-      <c r="Z996" s="3"/>
-    </row>
-    <row r="997" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A997" s="3"/>
-      <c r="B997" s="3"/>
-      <c r="C997" s="3"/>
-      <c r="D997" s="3"/>
-      <c r="E997" s="3"/>
-      <c r="F997" s="3"/>
-      <c r="G997" s="3"/>
-      <c r="H997" s="3"/>
-      <c r="I997" s="3"/>
-      <c r="J997" s="3"/>
-      <c r="K997" s="3"/>
-      <c r="L997" s="3"/>
-      <c r="M997" s="3"/>
-      <c r="N997" s="3"/>
-      <c r="O997" s="3"/>
-      <c r="P997" s="3"/>
-      <c r="Q997" s="3"/>
-      <c r="R997" s="3"/>
-      <c r="S997" s="3"/>
-      <c r="T997" s="3"/>
-      <c r="U997" s="3"/>
-      <c r="V997" s="3"/>
-      <c r="W997" s="3"/>
-      <c r="X997" s="3"/>
-      <c r="Y997" s="3"/>
-      <c r="Z997" s="3"/>
-    </row>
-    <row r="998" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A998" s="3"/>
-      <c r="B998" s="3"/>
-      <c r="C998" s="3"/>
-      <c r="D998" s="3"/>
-      <c r="E998" s="3"/>
-      <c r="F998" s="3"/>
-      <c r="G998" s="3"/>
-      <c r="H998" s="3"/>
-      <c r="I998" s="3"/>
-      <c r="J998" s="3"/>
-      <c r="K998" s="3"/>
-      <c r="L998" s="3"/>
-      <c r="M998" s="3"/>
-      <c r="N998" s="3"/>
-      <c r="O998" s="3"/>
-      <c r="P998" s="3"/>
-      <c r="Q998" s="3"/>
-      <c r="R998" s="3"/>
-      <c r="S998" s="3"/>
-      <c r="T998" s="3"/>
-      <c r="U998" s="3"/>
-      <c r="V998" s="3"/>
-      <c r="W998" s="3"/>
-      <c r="X998" s="3"/>
-      <c r="Y998" s="3"/>
-      <c r="Z998" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="150">
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="D43:D44"/>
@@ -29311,36 +31259,18 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
